--- a/DRE/IPT_ACRM_DRE_Indice_150514.xlsx
+++ b/DRE/IPT_ACRM_DRE_Indice_150514.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="7260"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14400" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="269">
   <si>
     <t>Cuando se establecen probabilidades en una oferta, deberia aparecer: (i) la probabilidad historica de conversión esa cuenta y (ii) probabilidad histórica historica del KAM</t>
   </si>
@@ -691,9 +691,6 @@
     <t>KPIs para los procesos de venta y sus métodos de medida</t>
   </si>
   <si>
-    <t>Establecimiento de precios en ofertas - Politica de precios. (PCP1/2/3)</t>
-  </si>
-  <si>
     <t>Workflows</t>
   </si>
   <si>
@@ -703,9 +700,6 @@
     <t>Gestión de ofertas</t>
   </si>
   <si>
-    <t xml:space="preserve">Gestión de marketing </t>
-  </si>
-  <si>
     <t>Gestión de incidencias</t>
   </si>
   <si>
@@ -751,9 +745,6 @@
     <t>¿IPT?</t>
   </si>
   <si>
-    <t>¿Alcance?</t>
-  </si>
-  <si>
     <t>-ver-</t>
   </si>
   <si>
@@ -787,24 +778,6 @@
     <t>Tareas planificadas</t>
   </si>
   <si>
-    <t>Clasificación de nuevas altas en SAP (gestión desde CRM)</t>
-  </si>
-  <si>
-    <t>Limpieza de cuentas BD1 (Backoffice)</t>
-  </si>
-  <si>
-    <t>Asignación de KAMs (por parte de los RM a empresas BD1)</t>
-  </si>
-  <si>
-    <t>Entrada de datos a cuentas nuevas (por parte de los KAMs asignados)</t>
-  </si>
-  <si>
-    <t>WF11 - Account creation</t>
-  </si>
-  <si>
-    <t>Limpieza de las entradas de los empleados BD11</t>
-  </si>
-  <si>
     <t>WF1 - Commercial activity request</t>
   </si>
   <si>
@@ -821,6 +794,45 @@
   </si>
   <si>
     <t>WF6 - Legal Requirements</t>
+  </si>
+  <si>
+    <t>WF7 - Special Prices</t>
+  </si>
+  <si>
+    <t>WF8 - Technical Support</t>
+  </si>
+  <si>
+    <t>WF9 - Delivery Times</t>
+  </si>
+  <si>
+    <t>WF10 - Financial credit</t>
+  </si>
+  <si>
+    <t>WF11 - Item Price Double-Check</t>
+  </si>
+  <si>
+    <t>WF12 - Account creation</t>
+  </si>
+  <si>
+    <t>TP1 - Clasificación de nuevas altas en SAP (gestión desde CRM)</t>
+  </si>
+  <si>
+    <t>TP2 - Establecimiento de precios en ofertas - Politica de precios. (PCP1/2/3)</t>
+  </si>
+  <si>
+    <t>TP3 - Limpieza de la BD1 - Companies (Backoffice)</t>
+  </si>
+  <si>
+    <t>TP4 - Asignación de KAMs (por parte de los RM a empresas BD1)</t>
+  </si>
+  <si>
+    <t>TP5 - Entrada de datos a cuentas nuevas (por parte de los KAMs asignados)</t>
+  </si>
+  <si>
+    <t>TP6 - Limpieza de la BD11 - Staff</t>
+  </si>
+  <si>
+    <t>TP7 - Pipeline Price Check</t>
   </si>
 </sst>
 </file>
@@ -1436,10 +1448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI176"/>
+  <dimension ref="A1:AI181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -1605,7 +1617,7 @@
     <row r="4" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B4" s="31"/>
       <c r="C4" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="12">
@@ -1938,7 +1950,7 @@
       <c r="A12" s="4"/>
       <c r="B12" s="31"/>
       <c r="C12" s="32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="12">
@@ -1994,7 +2006,7 @@
         <v>156</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="6"/>
@@ -2177,7 +2189,7 @@
         <v>156</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="6"/>
@@ -2315,7 +2327,7 @@
         <v>157</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="7"/>
@@ -3031,13 +3043,13 @@
         <v>6</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C36" s="32"/>
       <c r="D36" s="33"/>
       <c r="E36" s="10">
-        <f>SUM(E37:E49)</f>
-        <v>25</v>
+        <f>SUM(E37:E53)</f>
+        <v>35</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>169</v>
@@ -3126,7 +3138,7 @@
       <c r="A38" s="1"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="12"/>
@@ -3167,9 +3179,11 @@
       <c r="B39" s="31"/>
       <c r="C39" s="32"/>
       <c r="D39" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="E39" s="12"/>
+        <v>250</v>
+      </c>
+      <c r="E39" s="12">
+        <v>1</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
@@ -3204,9 +3218,11 @@
       <c r="B40" s="31"/>
       <c r="C40" s="32"/>
       <c r="D40" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="E40" s="12"/>
+        <v>251</v>
+      </c>
+      <c r="E40" s="12">
+        <v>1</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -3241,9 +3257,11 @@
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="E41" s="12"/>
+        <v>252</v>
+      </c>
+      <c r="E41" s="12">
+        <v>1</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
@@ -3278,9 +3296,11 @@
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
       <c r="D42" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="E42" s="12"/>
+        <v>253</v>
+      </c>
+      <c r="E42" s="12">
+        <v>1</v>
+      </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -3315,9 +3335,11 @@
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
       <c r="D43" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="E43" s="12"/>
+        <v>254</v>
+      </c>
+      <c r="E43" s="12">
+        <v>1</v>
+      </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -3352,9 +3374,11 @@
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
       <c r="D44" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="E44" s="12"/>
+        <v>255</v>
+      </c>
+      <c r="E44" s="12">
+        <v>1</v>
+      </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -3385,19 +3409,17 @@
       <c r="AG44" s="18"/>
       <c r="AI44" s="23"/>
     </row>
-    <row r="45" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B45" s="32"/>
-      <c r="C45" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="D45" s="33"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32" t="s">
+        <v>256</v>
+      </c>
       <c r="E45" s="12">
         <v>1</v>
       </c>
       <c r="F45" s="12"/>
-      <c r="G45" s="12" t="s">
-        <v>173</v>
-      </c>
+      <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="7"/>
       <c r="J45" s="18"/>
@@ -3429,10 +3451,12 @@
     <row r="46" spans="1:35" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
-      <c r="D46" s="33" t="s">
+      <c r="D46" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="E46" s="12"/>
+      <c r="E46" s="12">
+        <v>1</v>
+      </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -3463,19 +3487,17 @@
       <c r="AG46" s="18"/>
       <c r="AI46" s="23"/>
     </row>
-    <row r="47" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B47" s="32"/>
-      <c r="C47" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="D47" s="33"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32" t="s">
+        <v>258</v>
+      </c>
       <c r="E47" s="12">
         <v>1</v>
       </c>
       <c r="F47" s="12"/>
-      <c r="G47" s="12" t="s">
-        <v>241</v>
-      </c>
+      <c r="G47" s="12"/>
       <c r="H47" s="12"/>
       <c r="I47" s="7"/>
       <c r="J47" s="18"/>
@@ -3504,19 +3526,17 @@
       <c r="AG47" s="18"/>
       <c r="AI47" s="23"/>
     </row>
-    <row r="48" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B48" s="32"/>
-      <c r="C48" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="D48" s="33"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32" t="s">
+        <v>259</v>
+      </c>
       <c r="E48" s="12">
         <v>1</v>
       </c>
       <c r="F48" s="12"/>
-      <c r="G48" s="12" t="s">
-        <v>239</v>
-      </c>
+      <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="7"/>
       <c r="J48" s="18"/>
@@ -3545,19 +3565,17 @@
       <c r="AG48" s="18"/>
       <c r="AI48" s="23"/>
     </row>
-    <row r="49" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B49" s="32"/>
-      <c r="C49" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="D49" s="33"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32" t="s">
+        <v>260</v>
+      </c>
       <c r="E49" s="12">
         <v>1</v>
       </c>
       <c r="F49" s="12"/>
-      <c r="G49" s="12" t="s">
-        <v>173</v>
-      </c>
+      <c r="G49" s="12"/>
       <c r="H49" s="12"/>
       <c r="I49" s="7"/>
       <c r="J49" s="18"/>
@@ -3586,19 +3604,18 @@
       <c r="AG49" s="18"/>
       <c r="AI49" s="23"/>
     </row>
-    <row r="50" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>7</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="C50" s="32"/>
+    <row r="50" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="32"/>
+      <c r="C50" s="32" t="s">
+        <v>228</v>
+      </c>
       <c r="D50" s="33"/>
-      <c r="E50" s="12"/>
+      <c r="E50" s="12">
+        <v>1</v>
+      </c>
       <c r="F50" s="12"/>
-      <c r="G50" s="45" t="s">
-        <v>242</v>
+      <c r="G50" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="7"/>
@@ -3628,14 +3645,15 @@
       <c r="AG50" s="18"/>
       <c r="AI50" s="23"/>
     </row>
-    <row r="51" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="31"/>
-      <c r="C51" s="32" t="s">
-        <v>253</v>
+    <row r="51" spans="1:35" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="33" t="s">
+        <v>261</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="45"/>
+      <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="7"/>
       <c r="J51" s="18"/>
@@ -3665,17 +3683,17 @@
       <c r="AI51" s="23"/>
     </row>
     <row r="52" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="31"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="32" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D52" s="33"/>
       <c r="E52" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="7"/>
@@ -3703,19 +3721,21 @@
       <c r="AE52" s="18"/>
       <c r="AF52" s="18"/>
       <c r="AG52" s="18"/>
-      <c r="AI52" s="23" t="s">
-        <v>168</v>
-      </c>
+      <c r="AI52" s="23"/>
     </row>
     <row r="53" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="31"/>
+      <c r="B53" s="32"/>
       <c r="C53" s="32" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="D53" s="33"/>
-      <c r="E53" s="12"/>
+      <c r="E53" s="12">
+        <v>1</v>
+      </c>
       <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
+      <c r="G53" s="12" t="s">
+        <v>173</v>
+      </c>
       <c r="H53" s="12"/>
       <c r="I53" s="7"/>
       <c r="J53" s="18"/>
@@ -3744,15 +3764,23 @@
       <c r="AG53" s="18"/>
       <c r="AI53" s="23"/>
     </row>
-    <row r="54" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="31"/>
-      <c r="C54" s="32" t="s">
-        <v>255</v>
-      </c>
+    <row r="54" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>7</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" s="32"/>
       <c r="D54" s="33"/>
-      <c r="E54" s="12"/>
+      <c r="E54" s="10">
+        <f>SUM(E55:E61)</f>
+        <v>7</v>
+      </c>
       <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
+      <c r="G54" s="45" t="s">
+        <v>239</v>
+      </c>
       <c r="H54" s="12"/>
       <c r="I54" s="7"/>
       <c r="J54" s="18"/>
@@ -3781,15 +3809,16 @@
       <c r="AG54" s="18"/>
       <c r="AI54" s="23"/>
     </row>
-    <row r="55" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="31"/>
       <c r="C55" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="12"/>
+        <v>262</v>
+      </c>
+      <c r="E55" s="12">
+        <v>1</v>
+      </c>
       <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
+      <c r="G55" s="45"/>
       <c r="H55" s="12"/>
       <c r="I55" s="7"/>
       <c r="J55" s="18"/>
@@ -3821,12 +3850,16 @@
     <row r="56" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B56" s="31"/>
       <c r="C56" s="32" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D56" s="33"/>
-      <c r="E56" s="12"/>
+      <c r="E56" s="12">
+        <v>1</v>
+      </c>
       <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
+      <c r="G56" s="12" t="s">
+        <v>238</v>
+      </c>
       <c r="H56" s="12"/>
       <c r="I56" s="7"/>
       <c r="J56" s="18"/>
@@ -3853,38 +3886,26 @@
       <c r="AE56" s="18"/>
       <c r="AF56" s="18"/>
       <c r="AG56" s="18"/>
-      <c r="AI56" s="23"/>
-    </row>
-    <row r="57" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>8</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="C57" s="32"/>
+      <c r="AI56" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="31"/>
+      <c r="C57" s="32" t="s">
+        <v>264</v>
+      </c>
       <c r="D57" s="33"/>
-      <c r="E57" s="10">
-        <f>SUM(E58:E81)</f>
-        <v>61</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>243</v>
-      </c>
+      <c r="E57" s="12">
+        <v>1</v>
+      </c>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
       <c r="H57" s="12"/>
       <c r="I57" s="7"/>
-      <c r="J57" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="K57" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L57" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
       <c r="M57" s="18"/>
       <c r="N57" s="18"/>
       <c r="O57" s="18"/>
@@ -3906,18 +3927,16 @@
       <c r="AE57" s="18"/>
       <c r="AF57" s="18"/>
       <c r="AG57" s="18"/>
-      <c r="AI57" s="23" t="s">
-        <v>172</v>
-      </c>
+      <c r="AI57" s="23"/>
     </row>
     <row r="58" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="32"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="32" t="s">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="D58" s="33"/>
       <c r="E58" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
@@ -3950,13 +3969,13 @@
       <c r="AI58" s="23"/>
     </row>
     <row r="59" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="32"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="32" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="D59" s="33"/>
       <c r="E59" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
@@ -3989,13 +4008,13 @@
       <c r="AI59" s="23"/>
     </row>
     <row r="60" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="32"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="32" t="s">
-        <v>82</v>
+        <v>267</v>
       </c>
       <c r="D60" s="33"/>
       <c r="E60" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
@@ -4028,13 +4047,13 @@
       <c r="AI60" s="23"/>
     </row>
     <row r="61" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="32"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="32" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="D61" s="33"/>
       <c r="E61" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
@@ -4066,22 +4085,36 @@
       <c r="AG61" s="18"/>
       <c r="AI61" s="23"/>
     </row>
-    <row r="62" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="32"/>
-      <c r="C62" s="32" t="s">
-        <v>83</v>
-      </c>
+    <row r="62" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>8</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C62" s="32"/>
       <c r="D62" s="33"/>
-      <c r="E62" s="12">
-        <v>10</v>
-      </c>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
+      <c r="E62" s="10">
+        <f>SUM(E63:E86)</f>
+        <v>61</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>240</v>
+      </c>
       <c r="H62" s="12"/>
       <c r="I62" s="7"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
+      <c r="J62" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="K62" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="L62" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="M62" s="18"/>
       <c r="N62" s="18"/>
       <c r="O62" s="18"/>
@@ -4104,16 +4137,18 @@
       <c r="AF62" s="18"/>
       <c r="AG62" s="18"/>
       <c r="AI62" s="23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E63" s="12"/>
+      <c r="C63" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="33"/>
+      <c r="E63" s="12">
+        <v>2</v>
+      </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
@@ -4144,13 +4179,15 @@
       <c r="AG63" s="18"/>
       <c r="AI63" s="23"/>
     </row>
-    <row r="64" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E64" s="12"/>
+      <c r="C64" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="33"/>
+      <c r="E64" s="12">
+        <v>2</v>
+      </c>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
@@ -4181,13 +4218,15 @@
       <c r="AG64" s="18"/>
       <c r="AI64" s="23"/>
     </row>
-    <row r="65" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E65" s="12"/>
+      <c r="C65" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="33"/>
+      <c r="E65" s="12">
+        <v>2</v>
+      </c>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
@@ -4218,13 +4257,15 @@
       <c r="AG65" s="18"/>
       <c r="AI65" s="23"/>
     </row>
-    <row r="66" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E66" s="12"/>
+      <c r="C66" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="D66" s="33"/>
+      <c r="E66" s="12">
+        <v>2</v>
+      </c>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
@@ -4255,13 +4296,15 @@
       <c r="AG66" s="18"/>
       <c r="AI66" s="23"/>
     </row>
-    <row r="67" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="E67" s="12"/>
+      <c r="C67" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="33"/>
+      <c r="E67" s="12">
+        <v>10</v>
+      </c>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
@@ -4291,14 +4334,14 @@
       <c r="AF67" s="18"/>
       <c r="AG67" s="18"/>
       <c r="AI67" s="23" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
       <c r="D68" s="33" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -4335,7 +4378,7 @@
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
       <c r="D69" s="33" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
@@ -4368,15 +4411,13 @@
       <c r="AG69" s="18"/>
       <c r="AI69" s="23"/>
     </row>
-    <row r="70" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B70" s="32"/>
-      <c r="C70" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="D70" s="33"/>
-      <c r="E70" s="12">
-        <v>2</v>
-      </c>
+      <c r="C70" s="32"/>
+      <c r="D70" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
@@ -4405,19 +4446,15 @@
       <c r="AE70" s="18"/>
       <c r="AF70" s="18"/>
       <c r="AG70" s="18"/>
-      <c r="AI70" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AI70" s="23"/>
+    </row>
+    <row r="71" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B71" s="32"/>
-      <c r="C71" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" s="33"/>
-      <c r="E71" s="12">
-        <v>2</v>
-      </c>
+      <c r="C71" s="32"/>
+      <c r="D71" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
@@ -4448,11 +4485,11 @@
       <c r="AG71" s="18"/>
       <c r="AI71" s="23"/>
     </row>
-    <row r="72" spans="2:35" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
       <c r="D72" s="33" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
@@ -4483,17 +4520,17 @@
       <c r="AE72" s="18"/>
       <c r="AF72" s="18"/>
       <c r="AG72" s="18"/>
-      <c r="AI72" s="23"/>
-    </row>
-    <row r="73" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AI72" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B73" s="32"/>
-      <c r="C73" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="D73" s="33"/>
-      <c r="E73" s="12">
-        <v>2</v>
-      </c>
+      <c r="C73" s="32"/>
+      <c r="D73" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
@@ -4524,15 +4561,13 @@
       <c r="AG73" s="18"/>
       <c r="AI73" s="23"/>
     </row>
-    <row r="74" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B74" s="32"/>
-      <c r="C74" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D74" s="33"/>
-      <c r="E74" s="12">
-        <v>2</v>
-      </c>
+      <c r="C74" s="32"/>
+      <c r="D74" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
@@ -4563,14 +4598,14 @@
       <c r="AG74" s="18"/>
       <c r="AI74" s="23"/>
     </row>
-    <row r="75" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B75" s="32"/>
       <c r="C75" s="32" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="D75" s="33"/>
       <c r="E75" s="12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
@@ -4600,12 +4635,14 @@
       <c r="AE75" s="18"/>
       <c r="AF75" s="18"/>
       <c r="AG75" s="18"/>
-      <c r="AI75" s="23"/>
+      <c r="AI75" s="23" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="76" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B76" s="32"/>
       <c r="C76" s="32" t="s">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="D76" s="33"/>
       <c r="E76" s="12">
@@ -4641,15 +4678,13 @@
       <c r="AG76" s="18"/>
       <c r="AI76" s="23"/>
     </row>
-    <row r="77" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:35" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B77" s="32"/>
-      <c r="C77" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="D77" s="33"/>
-      <c r="E77" s="12">
-        <v>2</v>
-      </c>
+      <c r="C77" s="32"/>
+      <c r="D77" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
@@ -4722,11 +4757,11 @@
     <row r="79" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B79" s="32"/>
       <c r="C79" s="32" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="D79" s="33"/>
       <c r="E79" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
@@ -4761,11 +4796,11 @@
     <row r="80" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B80" s="32"/>
       <c r="C80" s="32" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="D80" s="33"/>
       <c r="E80" s="12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
@@ -4800,11 +4835,11 @@
     <row r="81" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B81" s="32"/>
       <c r="C81" s="32" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="D81" s="33"/>
       <c r="E81" s="12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
@@ -4836,13 +4871,15 @@
       <c r="AG81" s="18"/>
       <c r="AI81" s="23"/>
     </row>
-    <row r="82" spans="1:35" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E82" s="12"/>
+      <c r="C82" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D82" s="33"/>
+      <c r="E82" s="12">
+        <v>2</v>
+      </c>
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
@@ -4873,13 +4910,15 @@
       <c r="AG82" s="18"/>
       <c r="AI82" s="23"/>
     </row>
-    <row r="83" spans="1:35" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B83" s="32"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E83" s="12"/>
+      <c r="C83" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="D83" s="33"/>
+      <c r="E83" s="12">
+        <v>2</v>
+      </c>
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
@@ -4910,13 +4949,15 @@
       <c r="AG83" s="18"/>
       <c r="AI83" s="23"/>
     </row>
-    <row r="84" spans="1:35" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B84" s="32"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E84" s="12"/>
+      <c r="C84" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="D84" s="33"/>
+      <c r="E84" s="12">
+        <v>5</v>
+      </c>
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
@@ -4947,13 +4988,15 @@
       <c r="AG84" s="18"/>
       <c r="AI84" s="23"/>
     </row>
-    <row r="85" spans="1:35" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E85" s="12"/>
+      <c r="C85" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="D85" s="33"/>
+      <c r="E85" s="12">
+        <v>4</v>
+      </c>
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
@@ -4984,36 +5027,22 @@
       <c r="AG85" s="18"/>
       <c r="AI85" s="23"/>
     </row>
-    <row r="86" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
-        <v>9</v>
-      </c>
-      <c r="B86" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C86" s="32"/>
+    <row r="86" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="32"/>
+      <c r="C86" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="D86" s="33"/>
-      <c r="E86" s="10">
-        <f>SUM(E87:E98)</f>
-        <v>42</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="G86" s="12" t="s">
-        <v>244</v>
-      </c>
+      <c r="E86" s="12">
+        <v>10</v>
+      </c>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
       <c r="H86" s="12"/>
       <c r="I86" s="7"/>
-      <c r="J86" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="K86" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L86" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
       <c r="M86" s="18"/>
       <c r="N86" s="18"/>
       <c r="O86" s="18"/>
@@ -5037,15 +5066,13 @@
       <c r="AG86" s="18"/>
       <c r="AI86" s="23"/>
     </row>
-    <row r="87" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B87" s="32"/>
-      <c r="C87" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D87" s="33"/>
-      <c r="E87" s="12">
-        <v>5</v>
-      </c>
+      <c r="C87" s="32"/>
+      <c r="D87" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="12"/>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
@@ -5076,15 +5103,13 @@
       <c r="AG87" s="18"/>
       <c r="AI87" s="23"/>
     </row>
-    <row r="88" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B88" s="32"/>
-      <c r="C88" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="33"/>
-      <c r="E88" s="12">
-        <v>5</v>
-      </c>
+      <c r="C88" s="32"/>
+      <c r="D88" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" s="12"/>
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
@@ -5115,11 +5140,11 @@
       <c r="AG88" s="18"/>
       <c r="AI88" s="23"/>
     </row>
-    <row r="89" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B89" s="32"/>
       <c r="C89" s="32"/>
       <c r="D89" s="33" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
@@ -5152,11 +5177,11 @@
       <c r="AG89" s="18"/>
       <c r="AI89" s="23"/>
     </row>
-    <row r="90" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B90" s="32"/>
       <c r="C90" s="32"/>
       <c r="D90" s="33" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
@@ -5189,22 +5214,36 @@
       <c r="AG90" s="18"/>
       <c r="AI90" s="23"/>
     </row>
-    <row r="91" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="32"/>
-      <c r="C91" s="32" t="s">
-        <v>175</v>
-      </c>
+    <row r="91" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>9</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" s="32"/>
       <c r="D91" s="33"/>
-      <c r="E91" s="12">
-        <v>5</v>
-      </c>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
+      <c r="E91" s="10">
+        <f>SUM(E92:E103)</f>
+        <v>42</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>241</v>
+      </c>
       <c r="H91" s="12"/>
       <c r="I91" s="7"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="18"/>
+      <c r="J91" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="K91" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="L91" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="M91" s="18"/>
       <c r="N91" s="18"/>
       <c r="O91" s="18"/>
@@ -5230,12 +5269,12 @@
     </row>
     <row r="92" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B92" s="32"/>
-      <c r="C92" s="32" t="s">
-        <v>119</v>
+      <c r="C92" s="36" t="s">
+        <v>89</v>
       </c>
       <c r="D92" s="33"/>
       <c r="E92" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
@@ -5270,11 +5309,11 @@
     <row r="93" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B93" s="32"/>
       <c r="C93" s="32" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="D93" s="33"/>
       <c r="E93" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
@@ -5306,15 +5345,13 @@
       <c r="AG93" s="18"/>
       <c r="AI93" s="23"/>
     </row>
-    <row r="94" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B94" s="32"/>
-      <c r="C94" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D94" s="33"/>
-      <c r="E94" s="12">
-        <v>4</v>
-      </c>
+      <c r="C94" s="32"/>
+      <c r="D94" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94" s="12"/>
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
@@ -5345,15 +5382,13 @@
       <c r="AG94" s="18"/>
       <c r="AI94" s="23"/>
     </row>
-    <row r="95" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B95" s="32"/>
-      <c r="C95" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="33"/>
-      <c r="E95" s="12">
-        <v>6</v>
-      </c>
+      <c r="C95" s="32"/>
+      <c r="D95" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E95" s="12"/>
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
@@ -5384,14 +5419,14 @@
       <c r="AG95" s="18"/>
       <c r="AI95" s="23"/>
     </row>
-    <row r="96" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B96" s="32"/>
       <c r="C96" s="32" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="D96" s="33"/>
       <c r="E96" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
@@ -5421,18 +5456,16 @@
       <c r="AE96" s="18"/>
       <c r="AF96" s="18"/>
       <c r="AG96" s="18"/>
-      <c r="AI96" s="23" t="s">
-        <v>174</v>
-      </c>
+      <c r="AI96" s="23"/>
     </row>
     <row r="97" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B97" s="32"/>
       <c r="C97" s="32" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D97" s="33"/>
       <c r="E97" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
@@ -5462,18 +5495,16 @@
       <c r="AE97" s="18"/>
       <c r="AF97" s="18"/>
       <c r="AG97" s="18"/>
-      <c r="AI97" s="23" t="s">
-        <v>174</v>
-      </c>
+      <c r="AI97" s="23"/>
     </row>
     <row r="98" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B98" s="32"/>
       <c r="C98" s="32" t="s">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="D98" s="33"/>
       <c r="E98" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
@@ -5503,38 +5534,24 @@
       <c r="AE98" s="18"/>
       <c r="AF98" s="18"/>
       <c r="AG98" s="18"/>
-      <c r="AI98" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="99" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
-        <v>10</v>
-      </c>
-      <c r="B99" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C99" s="32"/>
+      <c r="AI98" s="23"/>
+    </row>
+    <row r="99" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="32"/>
+      <c r="C99" s="32" t="s">
+        <v>112</v>
+      </c>
       <c r="D99" s="33"/>
-      <c r="E99" s="10">
-        <f>SUM(E100:E112)</f>
-        <v>13</v>
-      </c>
-      <c r="F99" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>245</v>
-      </c>
+      <c r="E99" s="12">
+        <v>4</v>
+      </c>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
       <c r="H99" s="12"/>
       <c r="I99" s="7"/>
-      <c r="J99" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="J99" s="18"/>
       <c r="K99" s="18"/>
-      <c r="L99" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="L99" s="18"/>
       <c r="M99" s="18"/>
       <c r="N99" s="18"/>
       <c r="O99" s="18"/>
@@ -5561,11 +5578,11 @@
     <row r="100" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B100" s="32"/>
       <c r="C100" s="32" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="D100" s="33"/>
       <c r="E100" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
@@ -5600,11 +5617,11 @@
     <row r="101" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B101" s="32"/>
       <c r="C101" s="32" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="D101" s="33"/>
       <c r="E101" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
@@ -5634,16 +5651,18 @@
       <c r="AE101" s="18"/>
       <c r="AF101" s="18"/>
       <c r="AG101" s="18"/>
-      <c r="AI101" s="23"/>
+      <c r="AI101" s="23" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="102" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B102" s="32"/>
       <c r="C102" s="32" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D102" s="33"/>
       <c r="E102" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
@@ -5673,15 +5692,19 @@
       <c r="AE102" s="18"/>
       <c r="AF102" s="18"/>
       <c r="AG102" s="18"/>
-      <c r="AI102" s="23"/>
+      <c r="AI102" s="23" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="103" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B103" s="32"/>
       <c r="C103" s="32" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="D103" s="33"/>
-      <c r="E103" s="12"/>
+      <c r="E103" s="12">
+        <v>3</v>
+      </c>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
       <c r="H103" s="12"/>
@@ -5710,24 +5733,38 @@
       <c r="AE103" s="18"/>
       <c r="AF103" s="18"/>
       <c r="AG103" s="18"/>
-      <c r="AI103" s="23"/>
-    </row>
-    <row r="104" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="32"/>
-      <c r="C104" s="32" t="s">
-        <v>150</v>
-      </c>
+      <c r="AI103" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="104" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>10</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C104" s="32"/>
       <c r="D104" s="33"/>
-      <c r="E104" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
+      <c r="E104" s="10">
+        <f>SUM(E105:E117)</f>
+        <v>13</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>242</v>
+      </c>
       <c r="H104" s="12"/>
       <c r="I104" s="7"/>
-      <c r="J104" s="18"/>
+      <c r="J104" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="K104" s="18"/>
-      <c r="L104" s="18"/>
+      <c r="L104" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="M104" s="18"/>
       <c r="N104" s="18"/>
       <c r="O104" s="18"/>
@@ -5754,11 +5791,11 @@
     <row r="105" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B105" s="32"/>
       <c r="C105" s="32" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="D105" s="33"/>
       <c r="E105" s="12">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
@@ -5788,18 +5825,16 @@
       <c r="AE105" s="18"/>
       <c r="AF105" s="18"/>
       <c r="AG105" s="18"/>
-      <c r="AI105" s="23" t="s">
-        <v>152</v>
-      </c>
+      <c r="AI105" s="23"/>
     </row>
     <row r="106" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B106" s="32"/>
       <c r="C106" s="32" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D106" s="33"/>
       <c r="E106" s="12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
@@ -5833,11 +5868,13 @@
     </row>
     <row r="107" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B107" s="32"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E107" s="12"/>
+      <c r="C107" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D107" s="33"/>
+      <c r="E107" s="12">
+        <v>1</v>
+      </c>
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
@@ -5870,10 +5907,10 @@
     </row>
     <row r="108" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B108" s="32"/>
-      <c r="C108" s="32"/>
-      <c r="D108" s="33" t="s">
-        <v>33</v>
-      </c>
+      <c r="C108" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D108" s="33"/>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
@@ -5907,11 +5944,13 @@
     </row>
     <row r="109" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B109" s="32"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E109" s="12"/>
+      <c r="C109" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D109" s="33"/>
+      <c r="E109" s="12">
+        <v>0.5</v>
+      </c>
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
@@ -5944,11 +5983,13 @@
     </row>
     <row r="110" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B110" s="32"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E110" s="12"/>
+      <c r="C110" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D110" s="33"/>
+      <c r="E110" s="12">
+        <v>0.5</v>
+      </c>
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
@@ -5977,15 +6018,19 @@
       <c r="AE110" s="18"/>
       <c r="AF110" s="18"/>
       <c r="AG110" s="18"/>
-      <c r="AI110" s="23"/>
+      <c r="AI110" s="23" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="111" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B111" s="32"/>
-      <c r="C111" s="32"/>
-      <c r="D111" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E111" s="12"/>
+      <c r="C111" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" s="33"/>
+      <c r="E111" s="12">
+        <v>7</v>
+      </c>
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
@@ -6020,7 +6065,7 @@
       <c r="B112" s="32"/>
       <c r="C112" s="32"/>
       <c r="D112" s="33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
@@ -6053,36 +6098,20 @@
       <c r="AG112" s="18"/>
       <c r="AI112" s="23"/>
     </row>
-    <row r="113" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4">
-        <v>11</v>
-      </c>
-      <c r="B113" s="31" t="s">
-        <v>51</v>
-      </c>
+    <row r="113" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="32"/>
       <c r="C113" s="32"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="10">
-        <f>SUM(E114:E120)</f>
-        <v>28</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G113" s="12" t="s">
-        <v>146</v>
-      </c>
+      <c r="D113" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
       <c r="H113" s="12"/>
       <c r="I113" s="7"/>
-      <c r="J113" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="K113" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L113" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="J113" s="18"/>
+      <c r="K113" s="18"/>
+      <c r="L113" s="18"/>
       <c r="M113" s="18"/>
       <c r="N113" s="18"/>
       <c r="O113" s="18"/>
@@ -6108,13 +6137,11 @@
     </row>
     <row r="114" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B114" s="32"/>
-      <c r="C114" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D114" s="33"/>
-      <c r="E114" s="12">
-        <v>4</v>
-      </c>
+      <c r="C114" s="32"/>
+      <c r="D114" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E114" s="12"/>
       <c r="F114" s="12"/>
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
@@ -6147,13 +6174,11 @@
     </row>
     <row r="115" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B115" s="32"/>
-      <c r="C115" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D115" s="33"/>
-      <c r="E115" s="12">
-        <v>4</v>
-      </c>
+      <c r="C115" s="32"/>
+      <c r="D115" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115" s="12"/>
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
@@ -6186,13 +6211,11 @@
     </row>
     <row r="116" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B116" s="32"/>
-      <c r="C116" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D116" s="33"/>
-      <c r="E116" s="12">
-        <v>4</v>
-      </c>
+      <c r="C116" s="32"/>
+      <c r="D116" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E116" s="12"/>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
@@ -6225,13 +6248,11 @@
     </row>
     <row r="117" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B117" s="32"/>
-      <c r="C117" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D117" s="33"/>
-      <c r="E117" s="12">
-        <v>4</v>
-      </c>
+      <c r="C117" s="32"/>
+      <c r="D117" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117" s="12"/>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
@@ -6262,22 +6283,36 @@
       <c r="AG117" s="18"/>
       <c r="AI117" s="23"/>
     </row>
-    <row r="118" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="32"/>
-      <c r="C118" s="32" t="s">
-        <v>6</v>
-      </c>
+    <row r="118" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>11</v>
+      </c>
+      <c r="B118" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C118" s="32"/>
       <c r="D118" s="33"/>
-      <c r="E118" s="12">
-        <v>4</v>
-      </c>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
+      <c r="E118" s="10">
+        <f>SUM(E119:E125)</f>
+        <v>28</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>146</v>
+      </c>
       <c r="H118" s="12"/>
       <c r="I118" s="7"/>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="18"/>
+      <c r="J118" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="K118" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="L118" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="M118" s="18"/>
       <c r="N118" s="18"/>
       <c r="O118" s="18"/>
@@ -6304,7 +6339,7 @@
     <row r="119" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B119" s="32"/>
       <c r="C119" s="32" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D119" s="33"/>
       <c r="E119" s="12">
@@ -6343,7 +6378,7 @@
     <row r="120" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B120" s="32"/>
       <c r="C120" s="32" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D120" s="33"/>
       <c r="E120" s="12">
@@ -6379,32 +6414,22 @@
       <c r="AG120" s="18"/>
       <c r="AI120" s="23"/>
     </row>
-    <row r="121" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="4">
-        <v>12</v>
-      </c>
-      <c r="B121" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C121" s="32"/>
+    <row r="121" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="32"/>
+      <c r="C121" s="32" t="s">
+        <v>55</v>
+      </c>
       <c r="D121" s="33"/>
-      <c r="E121" s="10">
-        <f>SUM(E122:E134)</f>
-        <v>16</v>
-      </c>
-      <c r="F121" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G121" s="12" t="s">
-        <v>147</v>
-      </c>
+      <c r="E121" s="12">
+        <v>4</v>
+      </c>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
       <c r="H121" s="12"/>
       <c r="I121" s="7"/>
       <c r="J121" s="18"/>
       <c r="K121" s="18"/>
-      <c r="L121" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="L121" s="18"/>
       <c r="M121" s="18"/>
       <c r="N121" s="18"/>
       <c r="O121" s="18"/>
@@ -6430,8 +6455,8 @@
     </row>
     <row r="122" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B122" s="32"/>
-      <c r="C122" s="36" t="s">
-        <v>133</v>
+      <c r="C122" s="32" t="s">
+        <v>36</v>
       </c>
       <c r="D122" s="33"/>
       <c r="E122" s="12">
@@ -6469,12 +6494,12 @@
     </row>
     <row r="123" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B123" s="32"/>
-      <c r="C123" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="D123" s="38"/>
+      <c r="C123" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="33"/>
       <c r="E123" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
@@ -6509,11 +6534,11 @@
     <row r="124" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B124" s="32"/>
       <c r="C124" s="32" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="D124" s="33"/>
       <c r="E124" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
@@ -6547,12 +6572,12 @@
     </row>
     <row r="125" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B125" s="32"/>
-      <c r="C125" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D125" s="38"/>
+      <c r="C125" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D125" s="33"/>
       <c r="E125" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
@@ -6584,22 +6609,32 @@
       <c r="AG125" s="18"/>
       <c r="AI125" s="23"/>
     </row>
-    <row r="126" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="32"/>
-      <c r="C126" s="32" t="s">
-        <v>75</v>
-      </c>
+    <row r="126" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>12</v>
+      </c>
+      <c r="B126" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" s="32"/>
       <c r="D126" s="33"/>
-      <c r="E126" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
+      <c r="E126" s="10">
+        <f>SUM(E127:E139)</f>
+        <v>16</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>147</v>
+      </c>
       <c r="H126" s="12"/>
       <c r="I126" s="7"/>
       <c r="J126" s="18"/>
       <c r="K126" s="18"/>
-      <c r="L126" s="18"/>
+      <c r="L126" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
       <c r="O126" s="18"/>
@@ -6625,12 +6660,12 @@
     </row>
     <row r="127" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B127" s="32"/>
-      <c r="C127" s="32" t="s">
-        <v>76</v>
+      <c r="C127" s="36" t="s">
+        <v>133</v>
       </c>
       <c r="D127" s="33"/>
       <c r="E127" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
@@ -6664,16 +6699,14 @@
     </row>
     <row r="128" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B128" s="32"/>
-      <c r="C128" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D128" s="33"/>
+      <c r="C128" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D128" s="38"/>
       <c r="E128" s="12">
         <v>1</v>
       </c>
-      <c r="F128" s="12" t="s">
-        <v>131</v>
-      </c>
+      <c r="F128" s="12"/>
       <c r="G128" s="12"/>
       <c r="H128" s="12"/>
       <c r="I128" s="7"/>
@@ -6706,11 +6739,11 @@
     <row r="129" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B129" s="32"/>
       <c r="C129" s="32" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D129" s="33"/>
       <c r="E129" s="12">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
@@ -6744,12 +6777,12 @@
     </row>
     <row r="130" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B130" s="32"/>
-      <c r="C130" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="33"/>
+      <c r="C130" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D130" s="38"/>
       <c r="E130" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
@@ -6784,7 +6817,7 @@
     <row r="131" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B131" s="32"/>
       <c r="C131" s="32" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D131" s="33"/>
       <c r="E131" s="12">
@@ -6823,7 +6856,7 @@
     <row r="132" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B132" s="32"/>
       <c r="C132" s="32" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D132" s="33"/>
       <c r="E132" s="12">
@@ -6862,13 +6895,15 @@
     <row r="133" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B133" s="32"/>
       <c r="C133" s="32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D133" s="33"/>
       <c r="E133" s="12">
         <v>1</v>
       </c>
-      <c r="F133" s="12"/>
+      <c r="F133" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
       <c r="I133" s="7"/>
@@ -6901,11 +6936,11 @@
     <row r="134" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B134" s="32"/>
       <c r="C134" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D134" s="33"/>
       <c r="E134" s="12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
@@ -6937,30 +6972,21 @@
       <c r="AG134" s="18"/>
       <c r="AI134" s="23"/>
     </row>
-    <row r="135" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="4">
-        <v>13</v>
-      </c>
-      <c r="B135" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C135" s="32"/>
+    <row r="135" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="32"/>
+      <c r="C135" s="32" t="s">
+        <v>8</v>
+      </c>
       <c r="D135" s="33"/>
-      <c r="E135" s="10">
-        <v>2</v>
-      </c>
-      <c r="F135" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="G135" s="12" t="s">
-        <v>246</v>
-      </c>
+      <c r="E135" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
       <c r="H135" s="12"/>
       <c r="I135" s="7"/>
       <c r="J135" s="18"/>
-      <c r="K135" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="K135" s="18"/>
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
       <c r="N135" s="18"/>
@@ -6985,30 +7011,20 @@
       <c r="AG135" s="18"/>
       <c r="AI135" s="23"/>
     </row>
-    <row r="136" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4">
-        <v>14</v>
-      </c>
-      <c r="B136" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C136" s="32"/>
+    <row r="136" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="32"/>
+      <c r="C136" s="32" t="s">
+        <v>96</v>
+      </c>
       <c r="D136" s="33"/>
-      <c r="E136" s="10">
-        <f>SUM(E137:E141)</f>
-        <v>8</v>
-      </c>
-      <c r="F136" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="G136" s="12" t="s">
-        <v>246</v>
-      </c>
+      <c r="E136" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
       <c r="H136" s="12"/>
       <c r="I136" s="7"/>
-      <c r="J136" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="J136" s="18"/>
       <c r="K136" s="18"/>
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
@@ -7035,13 +7051,13 @@
       <c r="AI136" s="23"/>
     </row>
     <row r="137" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="31"/>
+      <c r="B137" s="32"/>
       <c r="C137" s="32" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D137" s="33"/>
       <c r="E137" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F137" s="12"/>
       <c r="G137" s="12"/>
@@ -7071,14 +7087,12 @@
       <c r="AE137" s="18"/>
       <c r="AF137" s="18"/>
       <c r="AG137" s="18"/>
-      <c r="AI137" s="23" t="s">
-        <v>125</v>
-      </c>
+      <c r="AI137" s="23"/>
     </row>
     <row r="138" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="31"/>
+      <c r="B138" s="32"/>
       <c r="C138" s="32" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="D138" s="33"/>
       <c r="E138" s="12">
@@ -7115,13 +7129,13 @@
       <c r="AI138" s="23"/>
     </row>
     <row r="139" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="31"/>
+      <c r="B139" s="32"/>
       <c r="C139" s="32" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="D139" s="33"/>
       <c r="E139" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
@@ -7153,21 +7167,30 @@
       <c r="AG139" s="18"/>
       <c r="AI139" s="23"/>
     </row>
-    <row r="140" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="31"/>
-      <c r="C140" s="32" t="s">
-        <v>144</v>
-      </c>
+    <row r="140" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>13</v>
+      </c>
+      <c r="B140" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C140" s="32"/>
       <c r="D140" s="33"/>
-      <c r="E140" s="12">
-        <v>1</v>
-      </c>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
+      <c r="E140" s="10">
+        <v>2</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G140" s="12" t="s">
+        <v>243</v>
+      </c>
       <c r="H140" s="12"/>
       <c r="I140" s="7"/>
       <c r="J140" s="18"/>
-      <c r="K140" s="18"/>
+      <c r="K140" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
@@ -7192,20 +7215,30 @@
       <c r="AG140" s="18"/>
       <c r="AI140" s="23"/>
     </row>
-    <row r="141" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="32"/>
-      <c r="C141" s="32" t="s">
-        <v>126</v>
-      </c>
+    <row r="141" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>14</v>
+      </c>
+      <c r="B141" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C141" s="32"/>
       <c r="D141" s="33"/>
-      <c r="E141" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="F141" s="12"/>
-      <c r="G141" s="12"/>
+      <c r="E141" s="10">
+        <f>SUM(E142:E146)</f>
+        <v>8</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G141" s="12" t="s">
+        <v>243</v>
+      </c>
       <c r="H141" s="12"/>
       <c r="I141" s="7"/>
-      <c r="J141" s="18"/>
+      <c r="J141" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="K141" s="18"/>
       <c r="L141" s="18"/>
       <c r="M141" s="18"/>
@@ -7229,36 +7262,24 @@
       <c r="AE141" s="18"/>
       <c r="AF141" s="18"/>
       <c r="AG141" s="18"/>
-      <c r="AI141" s="23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="142" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="4">
-        <v>15</v>
-      </c>
-      <c r="B142" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C142" s="32"/>
+      <c r="AI141" s="23"/>
+    </row>
+    <row r="142" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="31"/>
+      <c r="C142" s="32" t="s">
+        <v>88</v>
+      </c>
       <c r="D142" s="33"/>
-      <c r="E142" s="10">
-        <f>SUM(E143:E144)</f>
-        <v>5</v>
-      </c>
-      <c r="F142" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G142" s="12" t="s">
-        <v>247</v>
-      </c>
+      <c r="E142" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
       <c r="H142" s="12"/>
       <c r="I142" s="7"/>
       <c r="J142" s="18"/>
       <c r="K142" s="18"/>
-      <c r="L142" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="L142" s="18"/>
       <c r="M142" s="18"/>
       <c r="N142" s="18"/>
       <c r="O142" s="18"/>
@@ -7280,16 +7301,18 @@
       <c r="AE142" s="18"/>
       <c r="AF142" s="18"/>
       <c r="AG142" s="18"/>
-      <c r="AI142" s="23"/>
+      <c r="AI142" s="23" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="143" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B143" s="31"/>
       <c r="C143" s="32" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="D143" s="33"/>
       <c r="E143" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F143" s="12"/>
       <c r="G143" s="12"/>
@@ -7324,11 +7347,11 @@
     <row r="144" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B144" s="31"/>
       <c r="C144" s="32" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="D144" s="33"/>
       <c r="E144" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F144" s="12"/>
       <c r="G144" s="12"/>
@@ -7360,29 +7383,20 @@
       <c r="AG144" s="18"/>
       <c r="AI144" s="23"/>
     </row>
-    <row r="145" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="4">
-        <v>16</v>
-      </c>
-      <c r="B145" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C145" s="32"/>
+    <row r="145" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="31"/>
+      <c r="C145" s="32" t="s">
+        <v>144</v>
+      </c>
       <c r="D145" s="33"/>
-      <c r="E145" s="10">
+      <c r="E145" s="12">
         <v>1</v>
       </c>
-      <c r="F145" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G145" s="12" t="s">
-        <v>247</v>
-      </c>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
       <c r="H145" s="12"/>
       <c r="I145" s="7"/>
-      <c r="J145" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="J145" s="18"/>
       <c r="K145" s="18"/>
       <c r="L145" s="18"/>
       <c r="M145" s="18"/>
@@ -7406,35 +7420,24 @@
       <c r="AE145" s="18"/>
       <c r="AF145" s="18"/>
       <c r="AG145" s="18"/>
-      <c r="AI145" s="23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="146" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="4">
-        <v>17</v>
-      </c>
-      <c r="B146" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C146" s="32"/>
+      <c r="AI145" s="23"/>
+    </row>
+    <row r="146" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="32"/>
+      <c r="C146" s="32" t="s">
+        <v>126</v>
+      </c>
       <c r="D146" s="33"/>
-      <c r="E146" s="10">
-        <v>1</v>
-      </c>
-      <c r="F146" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G146" s="12" t="s">
-        <v>247</v>
-      </c>
+      <c r="E146" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
       <c r="H146" s="12"/>
       <c r="I146" s="7"/>
       <c r="J146" s="18"/>
       <c r="K146" s="18"/>
-      <c r="L146" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="L146" s="18"/>
       <c r="M146" s="18"/>
       <c r="N146" s="18"/>
       <c r="O146" s="18"/>
@@ -7457,23 +7460,35 @@
       <c r="AF146" s="18"/>
       <c r="AG146" s="18"/>
       <c r="AI146" s="23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="147" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="31"/>
-      <c r="C147" s="32" t="s">
-        <v>97</v>
-      </c>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="147" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>15</v>
+      </c>
+      <c r="B147" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C147" s="32"/>
       <c r="D147" s="33"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
+      <c r="E147" s="10">
+        <f>SUM(E148:E149)</f>
+        <v>5</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G147" s="12" t="s">
+        <v>244</v>
+      </c>
       <c r="H147" s="12"/>
       <c r="I147" s="7"/>
       <c r="J147" s="18"/>
       <c r="K147" s="18"/>
-      <c r="L147" s="18"/>
+      <c r="L147" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
       <c r="O147" s="18"/>
@@ -7500,10 +7515,12 @@
     <row r="148" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B148" s="31"/>
       <c r="C148" s="32" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D148" s="33"/>
-      <c r="E148" s="12"/>
+      <c r="E148" s="12">
+        <v>4</v>
+      </c>
       <c r="F148" s="12"/>
       <c r="G148" s="12"/>
       <c r="H148" s="12"/>
@@ -7534,32 +7551,22 @@
       <c r="AG148" s="18"/>
       <c r="AI148" s="23"/>
     </row>
-    <row r="149" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="4">
-        <v>18</v>
-      </c>
-      <c r="B149" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C149" s="32"/>
+    <row r="149" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="31"/>
+      <c r="C149" s="32" t="s">
+        <v>94</v>
+      </c>
       <c r="D149" s="33"/>
-      <c r="E149" s="10">
-        <f>SUM(E150:E156)</f>
-        <v>27</v>
-      </c>
-      <c r="F149" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="G149" s="12" t="s">
-        <v>248</v>
-      </c>
+      <c r="E149" s="12">
+        <v>1</v>
+      </c>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
       <c r="H149" s="12"/>
       <c r="I149" s="7"/>
       <c r="J149" s="18"/>
       <c r="K149" s="18"/>
-      <c r="L149" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="L149" s="18"/>
       <c r="M149" s="18"/>
       <c r="N149" s="18"/>
       <c r="O149" s="18"/>
@@ -7581,24 +7588,31 @@
       <c r="AE149" s="18"/>
       <c r="AF149" s="18"/>
       <c r="AG149" s="18"/>
-      <c r="AI149" s="23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="150" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="32"/>
-      <c r="C150" s="32" t="s">
-        <v>128</v>
-      </c>
+      <c r="AI149" s="23"/>
+    </row>
+    <row r="150" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>16</v>
+      </c>
+      <c r="B150" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C150" s="32"/>
       <c r="D150" s="33"/>
-      <c r="E150" s="12">
-        <v>4</v>
-      </c>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
+      <c r="E150" s="10">
+        <v>1</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G150" s="12" t="s">
+        <v>244</v>
+      </c>
       <c r="H150" s="12"/>
       <c r="I150" s="7"/>
-      <c r="J150" s="18"/>
+      <c r="J150" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="K150" s="18"/>
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
@@ -7623,25 +7637,34 @@
       <c r="AF150" s="18"/>
       <c r="AG150" s="18"/>
       <c r="AI150" s="23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="151" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="32"/>
-      <c r="C151" s="32" t="s">
-        <v>129</v>
-      </c>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>17</v>
+      </c>
+      <c r="B151" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C151" s="32"/>
       <c r="D151" s="33"/>
-      <c r="E151" s="12">
-        <v>4</v>
-      </c>
-      <c r="F151" s="12"/>
-      <c r="G151" s="12"/>
+      <c r="E151" s="10">
+        <v>1</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G151" s="12" t="s">
+        <v>244</v>
+      </c>
       <c r="H151" s="12"/>
       <c r="I151" s="7"/>
       <c r="J151" s="18"/>
       <c r="K151" s="18"/>
-      <c r="L151" s="18"/>
+      <c r="L151" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
       <c r="O151" s="18"/>
@@ -7663,17 +7686,17 @@
       <c r="AE151" s="18"/>
       <c r="AF151" s="18"/>
       <c r="AG151" s="18"/>
-      <c r="AI151" s="23"/>
+      <c r="AI151" s="23" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="152" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="32"/>
+      <c r="B152" s="31"/>
       <c r="C152" s="32" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="D152" s="33"/>
-      <c r="E152" s="12">
-        <v>4</v>
-      </c>
+      <c r="E152" s="12"/>
       <c r="F152" s="12"/>
       <c r="G152" s="12"/>
       <c r="H152" s="12"/>
@@ -7705,14 +7728,12 @@
       <c r="AI152" s="23"/>
     </row>
     <row r="153" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="32"/>
+      <c r="B153" s="31"/>
       <c r="C153" s="32" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D153" s="33"/>
-      <c r="E153" s="12">
-        <v>4</v>
-      </c>
+      <c r="E153" s="12"/>
       <c r="F153" s="12"/>
       <c r="G153" s="12"/>
       <c r="H153" s="12"/>
@@ -7743,22 +7764,32 @@
       <c r="AG153" s="18"/>
       <c r="AI153" s="23"/>
     </row>
-    <row r="154" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="32"/>
-      <c r="C154" s="32" t="s">
-        <v>24</v>
-      </c>
+    <row r="154" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>18</v>
+      </c>
+      <c r="B154" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C154" s="32"/>
       <c r="D154" s="33"/>
-      <c r="E154" s="12">
-        <v>5</v>
-      </c>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
+      <c r="E154" s="10">
+        <f>SUM(E155:E161)</f>
+        <v>27</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G154" s="12" t="s">
+        <v>245</v>
+      </c>
       <c r="H154" s="12"/>
       <c r="I154" s="7"/>
       <c r="J154" s="18"/>
       <c r="K154" s="18"/>
-      <c r="L154" s="18"/>
+      <c r="L154" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="M154" s="18"/>
       <c r="N154" s="18"/>
       <c r="O154" s="18"/>
@@ -7780,16 +7811,18 @@
       <c r="AE154" s="18"/>
       <c r="AF154" s="18"/>
       <c r="AG154" s="18"/>
-      <c r="AI154" s="23"/>
+      <c r="AI154" s="23" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="155" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B155" s="32"/>
       <c r="C155" s="32" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="D155" s="33"/>
       <c r="E155" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F155" s="12"/>
       <c r="G155" s="12"/>
@@ -7819,16 +7852,18 @@
       <c r="AE155" s="18"/>
       <c r="AF155" s="18"/>
       <c r="AG155" s="18"/>
-      <c r="AI155" s="23"/>
+      <c r="AI155" s="23" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="156" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B156" s="32"/>
       <c r="C156" s="32" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D156" s="33"/>
       <c r="E156" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F156" s="12"/>
       <c r="G156" s="12"/>
@@ -7860,35 +7895,22 @@
       <c r="AG156" s="18"/>
       <c r="AI156" s="23"/>
     </row>
-    <row r="157" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="4">
-        <v>19</v>
-      </c>
-      <c r="B157" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C157" s="32"/>
+    <row r="157" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="32"/>
+      <c r="C157" s="32" t="s">
+        <v>200</v>
+      </c>
       <c r="D157" s="33"/>
-      <c r="E157" s="10">
-        <v>2</v>
-      </c>
-      <c r="F157" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="G157" s="12" t="s">
-        <v>249</v>
-      </c>
+      <c r="E157" s="12">
+        <v>4</v>
+      </c>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
       <c r="H157" s="12"/>
       <c r="I157" s="7"/>
-      <c r="J157" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="K157" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L157" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="J157" s="18"/>
+      <c r="K157" s="18"/>
+      <c r="L157" s="18"/>
       <c r="M157" s="18"/>
       <c r="N157" s="18"/>
       <c r="O157" s="18"/>
@@ -7910,37 +7932,24 @@
       <c r="AE157" s="18"/>
       <c r="AF157" s="18"/>
       <c r="AG157" s="18"/>
-      <c r="AI157" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="158" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="4">
-        <v>20</v>
-      </c>
-      <c r="B158" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C158" s="32"/>
+      <c r="AI157" s="23"/>
+    </row>
+    <row r="158" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="32"/>
+      <c r="C158" s="32" t="s">
+        <v>71</v>
+      </c>
       <c r="D158" s="33"/>
-      <c r="E158" s="10">
+      <c r="E158" s="12">
         <v>4</v>
       </c>
-      <c r="F158" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="G158" s="12" t="s">
-        <v>250</v>
-      </c>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
       <c r="H158" s="12"/>
       <c r="I158" s="7"/>
-      <c r="J158" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="J158" s="18"/>
       <c r="K158" s="18"/>
-      <c r="L158" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="L158" s="18"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
       <c r="O158" s="18"/>
@@ -7965,12 +7974,14 @@
       <c r="AI158" s="23"/>
     </row>
     <row r="159" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="31"/>
+      <c r="B159" s="32"/>
       <c r="C159" s="32" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="D159" s="33"/>
-      <c r="E159" s="12"/>
+      <c r="E159" s="12">
+        <v>5</v>
+      </c>
       <c r="F159" s="12"/>
       <c r="G159" s="12"/>
       <c r="H159" s="12"/>
@@ -8001,63 +8012,57 @@
       <c r="AG159" s="18"/>
       <c r="AI159" s="23"/>
     </row>
-    <row r="160" spans="1:35" s="5" customFormat="1" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
-      <c r="B160" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C160" s="31"/>
-      <c r="D160" s="37"/>
-      <c r="E160" s="10">
-        <v>0</v>
-      </c>
-      <c r="F160" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="G160" s="12" t="s">
-        <v>250</v>
-      </c>
+    <row r="160" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="32"/>
+      <c r="C160" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D160" s="33"/>
+      <c r="E160" s="12">
+        <v>5</v>
+      </c>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
       <c r="H160" s="12"/>
-      <c r="I160" s="6"/>
-      <c r="J160" s="19"/>
-      <c r="K160" s="19"/>
-      <c r="L160" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="M160" s="19"/>
-      <c r="N160" s="19"/>
-      <c r="O160" s="19"/>
-      <c r="P160" s="19"/>
-      <c r="Q160" s="19"/>
-      <c r="R160" s="19"/>
-      <c r="S160" s="19"/>
-      <c r="T160" s="19"/>
-      <c r="U160" s="19"/>
-      <c r="V160" s="19"/>
-      <c r="W160" s="19"/>
-      <c r="X160" s="19"/>
-      <c r="Y160" s="19"/>
-      <c r="Z160" s="19"/>
-      <c r="AA160" s="19"/>
-      <c r="AB160" s="19"/>
-      <c r="AC160" s="19"/>
-      <c r="AD160" s="19"/>
-      <c r="AE160" s="19"/>
-      <c r="AF160" s="19"/>
-      <c r="AG160" s="19"/>
-      <c r="AH160" s="4"/>
-      <c r="AI160" s="24"/>
-    </row>
-    <row r="161" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I160" s="7"/>
+      <c r="J160" s="18"/>
+      <c r="K160" s="18"/>
+      <c r="L160" s="18"/>
+      <c r="M160" s="18"/>
+      <c r="N160" s="18"/>
+      <c r="O160" s="18"/>
+      <c r="P160" s="18"/>
+      <c r="Q160" s="18"/>
+      <c r="R160" s="18"/>
+      <c r="S160" s="18"/>
+      <c r="T160" s="18"/>
+      <c r="U160" s="18"/>
+      <c r="V160" s="18"/>
+      <c r="W160" s="18"/>
+      <c r="X160" s="18"/>
+      <c r="Y160" s="18"/>
+      <c r="Z160" s="18"/>
+      <c r="AA160" s="18"/>
+      <c r="AB160" s="18"/>
+      <c r="AC160" s="18"/>
+      <c r="AD160" s="18"/>
+      <c r="AE160" s="18"/>
+      <c r="AF160" s="18"/>
+      <c r="AG160" s="18"/>
+      <c r="AI160" s="23"/>
+    </row>
+    <row r="161" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B161" s="32"/>
       <c r="C161" s="32" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="D161" s="33"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="7"/>
+      <c r="E161" s="12">
+        <v>1</v>
+      </c>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
       <c r="I161" s="7"/>
       <c r="J161" s="18"/>
       <c r="K161" s="18"/>
@@ -8085,20 +8090,35 @@
       <c r="AG161" s="18"/>
       <c r="AI161" s="23"/>
     </row>
-    <row r="162" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="32"/>
-      <c r="C162" s="32" t="s">
-        <v>61</v>
-      </c>
+    <row r="162" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>19</v>
+      </c>
+      <c r="B162" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C162" s="32"/>
       <c r="D162" s="33"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
+      <c r="E162" s="10">
+        <v>2</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G162" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H162" s="12"/>
       <c r="I162" s="7"/>
-      <c r="J162" s="18"/>
-      <c r="K162" s="18"/>
-      <c r="L162" s="18"/>
+      <c r="J162" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="K162" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="L162" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="M162" s="18"/>
       <c r="N162" s="18"/>
       <c r="O162" s="18"/>
@@ -8121,23 +8141,36 @@
       <c r="AF162" s="18"/>
       <c r="AG162" s="18"/>
       <c r="AI162" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="163" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="32"/>
-      <c r="C163" s="32" t="s">
-        <v>62</v>
-      </c>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="163" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>20</v>
+      </c>
+      <c r="B163" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C163" s="32"/>
       <c r="D163" s="33"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
+      <c r="E163" s="10">
+        <v>4</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G163" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H163" s="12"/>
       <c r="I163" s="7"/>
-      <c r="J163" s="18"/>
+      <c r="J163" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="K163" s="18"/>
-      <c r="L163" s="18"/>
+      <c r="L163" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="M163" s="18"/>
       <c r="N163" s="18"/>
       <c r="O163" s="18"/>
@@ -8161,16 +8194,16 @@
       <c r="AG163" s="18"/>
       <c r="AI163" s="23"/>
     </row>
-    <row r="164" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="32"/>
+    <row r="164" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="31"/>
       <c r="C164" s="32" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D164" s="33"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
       <c r="I164" s="7"/>
       <c r="J164" s="18"/>
       <c r="K164" s="18"/>
@@ -8198,73 +8231,270 @@
       <c r="AG164" s="18"/>
       <c r="AI164" s="23"/>
     </row>
-    <row r="165" spans="2:35" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="E165" s="14">
-        <f>(SUM(E3:E160))/2</f>
-        <v>267.5</v>
-      </c>
-    </row>
-    <row r="166" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B166" s="34" t="s">
+    <row r="165" spans="1:35" s="5" customFormat="1" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="B165" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C165" s="31"/>
+      <c r="D165" s="37"/>
+      <c r="E165" s="10">
+        <v>0</v>
+      </c>
+      <c r="F165" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G165" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H165" s="12"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="19"/>
+      <c r="K165" s="19"/>
+      <c r="L165" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="M165" s="19"/>
+      <c r="N165" s="19"/>
+      <c r="O165" s="19"/>
+      <c r="P165" s="19"/>
+      <c r="Q165" s="19"/>
+      <c r="R165" s="19"/>
+      <c r="S165" s="19"/>
+      <c r="T165" s="19"/>
+      <c r="U165" s="19"/>
+      <c r="V165" s="19"/>
+      <c r="W165" s="19"/>
+      <c r="X165" s="19"/>
+      <c r="Y165" s="19"/>
+      <c r="Z165" s="19"/>
+      <c r="AA165" s="19"/>
+      <c r="AB165" s="19"/>
+      <c r="AC165" s="19"/>
+      <c r="AD165" s="19"/>
+      <c r="AE165" s="19"/>
+      <c r="AF165" s="19"/>
+      <c r="AG165" s="19"/>
+      <c r="AH165" s="4"/>
+      <c r="AI165" s="24"/>
+    </row>
+    <row r="166" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="32"/>
+      <c r="C166" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D166" s="33"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7"/>
+      <c r="J166" s="18"/>
+      <c r="K166" s="18"/>
+      <c r="L166" s="18"/>
+      <c r="M166" s="18"/>
+      <c r="N166" s="18"/>
+      <c r="O166" s="18"/>
+      <c r="P166" s="18"/>
+      <c r="Q166" s="18"/>
+      <c r="R166" s="18"/>
+      <c r="S166" s="18"/>
+      <c r="T166" s="18"/>
+      <c r="U166" s="18"/>
+      <c r="V166" s="18"/>
+      <c r="W166" s="18"/>
+      <c r="X166" s="18"/>
+      <c r="Y166" s="18"/>
+      <c r="Z166" s="18"/>
+      <c r="AA166" s="18"/>
+      <c r="AB166" s="18"/>
+      <c r="AC166" s="18"/>
+      <c r="AD166" s="18"/>
+      <c r="AE166" s="18"/>
+      <c r="AF166" s="18"/>
+      <c r="AG166" s="18"/>
+      <c r="AI166" s="23"/>
+    </row>
+    <row r="167" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="32"/>
+      <c r="C167" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D167" s="33"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="18"/>
+      <c r="K167" s="18"/>
+      <c r="L167" s="18"/>
+      <c r="M167" s="18"/>
+      <c r="N167" s="18"/>
+      <c r="O167" s="18"/>
+      <c r="P167" s="18"/>
+      <c r="Q167" s="18"/>
+      <c r="R167" s="18"/>
+      <c r="S167" s="18"/>
+      <c r="T167" s="18"/>
+      <c r="U167" s="18"/>
+      <c r="V167" s="18"/>
+      <c r="W167" s="18"/>
+      <c r="X167" s="18"/>
+      <c r="Y167" s="18"/>
+      <c r="Z167" s="18"/>
+      <c r="AA167" s="18"/>
+      <c r="AB167" s="18"/>
+      <c r="AC167" s="18"/>
+      <c r="AD167" s="18"/>
+      <c r="AE167" s="18"/>
+      <c r="AF167" s="18"/>
+      <c r="AG167" s="18"/>
+      <c r="AI167" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="168" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="32"/>
+      <c r="C168" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D168" s="33"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="18"/>
+      <c r="K168" s="18"/>
+      <c r="L168" s="18"/>
+      <c r="M168" s="18"/>
+      <c r="N168" s="18"/>
+      <c r="O168" s="18"/>
+      <c r="P168" s="18"/>
+      <c r="Q168" s="18"/>
+      <c r="R168" s="18"/>
+      <c r="S168" s="18"/>
+      <c r="T168" s="18"/>
+      <c r="U168" s="18"/>
+      <c r="V168" s="18"/>
+      <c r="W168" s="18"/>
+      <c r="X168" s="18"/>
+      <c r="Y168" s="18"/>
+      <c r="Z168" s="18"/>
+      <c r="AA168" s="18"/>
+      <c r="AB168" s="18"/>
+      <c r="AC168" s="18"/>
+      <c r="AD168" s="18"/>
+      <c r="AE168" s="18"/>
+      <c r="AF168" s="18"/>
+      <c r="AG168" s="18"/>
+      <c r="AI168" s="23"/>
+    </row>
+    <row r="169" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="32"/>
+      <c r="C169" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D169" s="33"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="7"/>
+      <c r="J169" s="18"/>
+      <c r="K169" s="18"/>
+      <c r="L169" s="18"/>
+      <c r="M169" s="18"/>
+      <c r="N169" s="18"/>
+      <c r="O169" s="18"/>
+      <c r="P169" s="18"/>
+      <c r="Q169" s="18"/>
+      <c r="R169" s="18"/>
+      <c r="S169" s="18"/>
+      <c r="T169" s="18"/>
+      <c r="U169" s="18"/>
+      <c r="V169" s="18"/>
+      <c r="W169" s="18"/>
+      <c r="X169" s="18"/>
+      <c r="Y169" s="18"/>
+      <c r="Z169" s="18"/>
+      <c r="AA169" s="18"/>
+      <c r="AB169" s="18"/>
+      <c r="AC169" s="18"/>
+      <c r="AD169" s="18"/>
+      <c r="AE169" s="18"/>
+      <c r="AF169" s="18"/>
+      <c r="AG169" s="18"/>
+      <c r="AI169" s="23"/>
+    </row>
+    <row r="170" spans="1:35" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="E170" s="14">
+        <f>(SUM(E3:E165))/2</f>
+        <v>282.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B171" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D166" s="30" t="s">
+      <c r="D171" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="167" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B167" s="34" t="s">
+    <row r="172" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B172" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D167" s="30" t="s">
+      <c r="D172" s="30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="168" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B168" s="39" t="s">
+    <row r="173" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B173" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D168" s="30" t="s">
+      <c r="D173" s="30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="169" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B169" s="34" t="s">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B174" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="D169" s="30" t="s">
+      <c r="D174" s="30" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="171" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B171" s="40"/>
-      <c r="D171" s="30" t="s">
+    <row r="176" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B176" s="40"/>
+      <c r="D176" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="172" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B172" s="41"/>
-      <c r="D172" s="30" t="s">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" s="41"/>
+      <c r="D177" s="30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="173" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B173" s="42"/>
-      <c r="D173" s="30" t="s">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" s="42"/>
+      <c r="D178" s="30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="174" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B174" s="43"/>
-      <c r="D174" s="30" t="s">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" s="43"/>
+      <c r="D179" s="30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="176" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B176" s="29" t="s">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D176" s="30" t="s">
+      <c r="D181" s="30" t="s">
         <v>124</v>
       </c>
     </row>
@@ -8272,7 +8502,7 @@
   <pageMargins left="0.26" right="0.34" top="0.26" bottom="0.18" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E142 E121 E149 E13" formulaRange="1"/>
+    <ignoredError sqref="E147 E126 E154 E13" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
